--- a/folder_scan.xlsx
+++ b/folder_scan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>no</t>
   </si>
@@ -29,6 +29,54 @@
   </si>
   <si>
     <t>f_link</t>
+  </si>
+  <si>
+    <t>C:/TEMP</t>
+  </si>
+  <si>
+    <t>C:/TEMP\TCO_20160823</t>
+  </si>
+  <si>
+    <t>controldebug.ini</t>
+  </si>
+  <si>
+    <t>friend_list.txt</t>
+  </si>
+  <si>
+    <t>SharedDisable.exe</t>
+  </si>
+  <si>
+    <t>stop.lnk</t>
+  </si>
+  <si>
+    <t>wushowhide.diagcab</t>
+  </si>
+  <si>
+    <t>data1.cab</t>
+  </si>
+  <si>
+    <t>data1.hdr</t>
+  </si>
+  <si>
+    <t>data2.cab</t>
+  </si>
+  <si>
+    <t>ikernel.ex_</t>
+  </si>
+  <si>
+    <t>layout.bin</t>
+  </si>
+  <si>
+    <t>Setup.exe</t>
+  </si>
+  <si>
+    <t>Setup.ini</t>
+  </si>
+  <si>
+    <t>setup.inx</t>
+  </si>
+  <si>
+    <t>SVRINFO.INI</t>
   </si>
 </sst>
 </file>
@@ -386,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +457,272 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>HYPERLINK("C:/TEMP\controldebug.ini", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f>HYPERLINK("C:/TEMP\friend_list.txt", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f>HYPERLINK("C:/TEMP\SharedDisable.exe", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>HYPERLINK("C:/TEMP\stop.lnk", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f>HYPERLINK("C:/TEMP\wushowhide.diagcab", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.cab", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.hdr", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\data2.cab", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\ikernel.ex_", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\layout.bin", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.exe", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.ini", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\setup.inx", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\SVRINFO.INI", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/folder_scan.xlsx
+++ b/folder_scan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>no</t>
   </si>
@@ -31,52 +31,19 @@
     <t>f_link</t>
   </si>
   <si>
-    <t>C:/TEMP</t>
-  </si>
-  <si>
-    <t>C:/TEMP\TCO_20160823</t>
-  </si>
-  <si>
-    <t>controldebug.ini</t>
+    <t>/Volumes/zettassd/Workspace/pandas/data</t>
+  </si>
+  <si>
+    <t>friend_list.csv</t>
   </si>
   <si>
     <t>friend_list.txt</t>
   </si>
   <si>
-    <t>SharedDisable.exe</t>
-  </si>
-  <si>
-    <t>stop.lnk</t>
-  </si>
-  <si>
-    <t>wushowhide.diagcab</t>
-  </si>
-  <si>
-    <t>data1.cab</t>
-  </si>
-  <si>
-    <t>data1.hdr</t>
-  </si>
-  <si>
-    <t>data2.cab</t>
-  </si>
-  <si>
-    <t>ikernel.ex_</t>
-  </si>
-  <si>
-    <t>layout.bin</t>
-  </si>
-  <si>
-    <t>Setup.exe</t>
-  </si>
-  <si>
-    <t>Setup.ini</t>
-  </si>
-  <si>
-    <t>setup.inx</t>
-  </si>
-  <si>
-    <t>SVRINFO.INI</t>
+    <t>friend_list_tab.txt</t>
+  </si>
+  <si>
+    <t>friend_list_no_head.csv</t>
   </si>
 </sst>
 </file>
@@ -434,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,14 +432,14 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("C:/TEMP\controldebug.ini", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list.csv", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -484,14 +451,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("C:/TEMP\friend_list.txt", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list.txt", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -503,14 +470,14 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("C:/TEMP\SharedDisable.exe", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list_tab.txt", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -522,204 +489,14 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("C:/TEMP\stop.lnk", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <f>HYPERLINK("C:/TEMP\wushowhide.diagcab", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.cab", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.hdr", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\data2.cab", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\ikernel.ex_", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\layout.bin", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.exe", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.ini", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\setup.inx", "FileView")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\SVRINFO.INI", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list_no_head.csv", "FileView")</f>
         <v>0</v>
       </c>
     </row>

--- a/folder_scan.xlsx
+++ b/folder_scan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>no</t>
   </si>
@@ -31,19 +31,28 @@
     <t>f_link</t>
   </si>
   <si>
-    <t>/Volumes/zettassd/Workspace/pandas/data</t>
-  </si>
-  <si>
-    <t>friend_list.csv</t>
-  </si>
-  <si>
-    <t>friend_list.txt</t>
-  </si>
-  <si>
-    <t>friend_list_tab.txt</t>
-  </si>
-  <si>
-    <t>friend_list_no_head.csv</t>
+    <t>/Volumes/zettassd/Workspace/SQLite DB</t>
+  </si>
+  <si>
+    <t>friends.sql</t>
+  </si>
+  <si>
+    <t>orders.sql</t>
+  </si>
+  <si>
+    <t>customers_reservations.sql</t>
+  </si>
+  <si>
+    <t>cars.sql</t>
+  </si>
+  <si>
+    <t>Friend.db</t>
+  </si>
+  <si>
+    <t>test.db</t>
+  </si>
+  <si>
+    <t>authors_books.sql</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,14 +441,14 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list.csv", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/friends.sql", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -451,14 +460,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list.txt", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/orders.sql", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -470,14 +479,14 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list_tab.txt", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/customers_reservations.sql", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -489,14 +498,71 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/pandas/data", "DirView")</f>
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/pandas/data/friend_list_no_head.csv", "FileView")</f>
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/cars.sql", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/Friend.db", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/test.db", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/authors_books.sql", "FileView")</f>
         <v>0</v>
       </c>
     </row>

--- a/folder_scan.xlsx
+++ b/folder_scan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>no</t>
   </si>
@@ -31,28 +31,52 @@
     <t>f_link</t>
   </si>
   <si>
-    <t>/Volumes/zettassd/Workspace/SQLite DB</t>
-  </si>
-  <si>
-    <t>friends.sql</t>
-  </si>
-  <si>
-    <t>orders.sql</t>
-  </si>
-  <si>
-    <t>customers_reservations.sql</t>
-  </si>
-  <si>
-    <t>cars.sql</t>
-  </si>
-  <si>
-    <t>Friend.db</t>
-  </si>
-  <si>
-    <t>test.db</t>
-  </si>
-  <si>
-    <t>authors_books.sql</t>
+    <t>C:/TEMP</t>
+  </si>
+  <si>
+    <t>C:/TEMP\TCO_20160823</t>
+  </si>
+  <si>
+    <t>controldebug.ini</t>
+  </si>
+  <si>
+    <t>friend_list.txt</t>
+  </si>
+  <si>
+    <t>SharedDisable.exe</t>
+  </si>
+  <si>
+    <t>stop.lnk</t>
+  </si>
+  <si>
+    <t>wushowhide.diagcab</t>
+  </si>
+  <si>
+    <t>data1.cab</t>
+  </si>
+  <si>
+    <t>data1.hdr</t>
+  </si>
+  <si>
+    <t>data2.cab</t>
+  </si>
+  <si>
+    <t>ikernel.ex_</t>
+  </si>
+  <si>
+    <t>layout.bin</t>
+  </si>
+  <si>
+    <t>Setup.exe</t>
+  </si>
+  <si>
+    <t>Setup.ini</t>
+  </si>
+  <si>
+    <t>setup.inx</t>
+  </si>
+  <si>
+    <t>SVRINFO.INI</t>
   </si>
 </sst>
 </file>
@@ -410,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,14 +465,14 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/friends.sql", "FileView")</f>
+        <f>HYPERLINK("C:/TEMP\controldebug.ini", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -460,14 +484,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/orders.sql", "FileView")</f>
+        <f>HYPERLINK("C:/TEMP\friend_list.txt", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -479,14 +503,14 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/customers_reservations.sql", "FileView")</f>
+        <f>HYPERLINK("C:/TEMP\SharedDisable.exe", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -498,14 +522,14 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/cars.sql", "FileView")</f>
+        <f>HYPERLINK("C:/TEMP\stop.lnk", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -517,14 +541,14 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/Friend.db", "FileView")</f>
+        <f>HYPERLINK("C:/TEMP\wushowhide.diagcab", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -533,17 +557,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/test.db", "FileView")</f>
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.cab", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -552,17 +576,150 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <f>HYPERLINK("/Volumes/zettassd/Workspace/SQLite DB", "DirView")</f>
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.hdr", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\data2.cab", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\ikernel.ex_", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\layout.bin", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.exe", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="E8">
-        <f>HYPERLINK("file://Volumes/zettassd/Workspace/SQLite DB/authors_books.sql", "FileView")</f>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.ini", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\setup.inx", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <f>HYPERLINK("C:/TEMP\TCO_20160823\SVRINFO.INI", "FileView")</f>
         <v>0</v>
       </c>
     </row>

--- a/folder_scan.xlsx
+++ b/folder_scan.xlsx
@@ -472,7 +472,8 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("C:/TEMP\controldebug.ini", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\controldebug.ini", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -491,7 +492,8 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("C:/TEMP\friend_list.txt", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\friend_list.txt", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -510,7 +512,8 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("C:/TEMP\SharedDisable.exe", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\SharedDisable.exe", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -529,7 +532,8 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("C:/TEMP\stop.lnk", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\stop.lnk", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -548,7 +552,8 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("C:/TEMP\wushowhide.diagcab", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\wushowhide.diagcab", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -567,7 +572,8 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.cab", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\data1.cab", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -586,7 +592,8 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\data1.hdr", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\data1.hdr", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -605,7 +612,8 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\data2.cab", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\data2.cab", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -624,7 +632,8 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\ikernel.ex_", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\ikernel.ex_", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -643,7 +652,8 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\layout.bin", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\layout.bin", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -662,7 +672,8 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.exe", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\Setup.exe", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -681,7 +692,8 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\Setup.ini", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\Setup.ini", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -700,7 +712,8 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\setup.inx", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\setup.inx", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>
@@ -719,7 +732,8 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823\SVRINFO.INI", "FileView")</f>
+        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\SVRINFO.INI", "FileView")
+</f>
         <v>0</v>
       </c>
     </row>

--- a/folder_scan.xlsx
+++ b/folder_scan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="129">
   <si>
     <t>no</t>
   </si>
@@ -31,52 +31,376 @@
     <t>f_link</t>
   </si>
   <si>
-    <t>C:/TEMP</t>
-  </si>
-  <si>
-    <t>C:/TEMP\TCO_20160823</t>
-  </si>
-  <si>
-    <t>controldebug.ini</t>
-  </si>
-  <si>
-    <t>friend_list.txt</t>
-  </si>
-  <si>
-    <t>SharedDisable.exe</t>
-  </si>
-  <si>
-    <t>stop.lnk</t>
-  </si>
-  <si>
-    <t>wushowhide.diagcab</t>
-  </si>
-  <si>
-    <t>data1.cab</t>
-  </si>
-  <si>
-    <t>data1.hdr</t>
-  </si>
-  <si>
-    <t>data2.cab</t>
-  </si>
-  <si>
-    <t>ikernel.ex_</t>
-  </si>
-  <si>
-    <t>layout.bin</t>
-  </si>
-  <si>
-    <t>Setup.exe</t>
-  </si>
-  <si>
-    <t>Setup.ini</t>
-  </si>
-  <si>
-    <t>setup.inx</t>
-  </si>
-  <si>
-    <t>SVRINFO.INI</t>
+    <t>/Users/zetta/Downloads</t>
+  </si>
+  <si>
+    <t>/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles</t>
+  </si>
+  <si>
+    <t>/Users/zetta/Downloads/_dllFiles</t>
+  </si>
+  <si>
+    <t>/Users/zetta/Downloads/sqlite-tools-osx-x86-3260000</t>
+  </si>
+  <si>
+    <t>/Users/zetta/Downloads/팬더스_명령어_꿀팁_files</t>
+  </si>
+  <si>
+    <t>팬더스_명령어_꿀팁.pdf</t>
+  </si>
+  <si>
+    <t>image.zip</t>
+  </si>
+  <si>
+    <t>settings.jar</t>
+  </si>
+  <si>
+    <t>259a647f6587020a8af66d78b30cf460.torrent</t>
+  </si>
+  <si>
+    <t>Mortal.Engines.2018.1080p.KORSUB.HDRip.x264.AAC2.0-STUTTERSHIT.torrent</t>
+  </si>
+  <si>
+    <t>The.Matrix.1999.RM.in.4K.Bluray.1080p.TrueHD.7.1.Atmos.x264-Grym.torrent</t>
+  </si>
+  <si>
+    <t>Form.zip</t>
+  </si>
+  <si>
+    <t>.DS_Store</t>
+  </si>
+  <si>
+    <t>images.jpeg</t>
+  </si>
+  <si>
+    <t>.localized</t>
+  </si>
+  <si>
+    <t>PSB 계획.pdf</t>
+  </si>
+  <si>
+    <t>PMC 더 벙커 Take Point. 2018.720p.HDRip.H264.AAC-NonDRM.mp4.torrent</t>
+  </si>
+  <si>
+    <t>c23d4316d226ce344b2adbc60b80b7fd.jpg</t>
+  </si>
+  <si>
+    <t>_dllFiles.z02</t>
+  </si>
+  <si>
+    <t>sqlite-tools-osx-x86-3260000.zip</t>
+  </si>
+  <si>
+    <t>팬더스_명령어_꿀팁.htm</t>
+  </si>
+  <si>
+    <t>_dllFiles.z03</t>
+  </si>
+  <si>
+    <t>팬더스_명령어_꿀팁.tex</t>
+  </si>
+  <si>
+    <t>새 파일 2019-01-29 12.33.36.pdf</t>
+  </si>
+  <si>
+    <t>팬더스_명령어_꿀팁.slides.html</t>
+  </si>
+  <si>
+    <t>팬더스_명령어_꿀팁.html</t>
+  </si>
+  <si>
+    <t>_dllFiles.zip</t>
+  </si>
+  <si>
+    <t>팬더스_명령어_꿀팁.md</t>
+  </si>
+  <si>
+    <t>dllFiles 2.zip</t>
+  </si>
+  <si>
+    <t>Sublime Text Build 3176.dmg</t>
+  </si>
+  <si>
+    <t>Aquaman.2018.1080p.KORSUB.HDRip.x264.AAC2.0-STUTTERSHIT.torrent</t>
+  </si>
+  <si>
+    <t>Alfred_3.7.1_946.dmg</t>
+  </si>
+  <si>
+    <t>_dllFiles.z01</t>
+  </si>
+  <si>
+    <t>zDownload</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-time-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5WebSockets.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-filesystem-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Multimedia.dll</t>
+  </si>
+  <si>
+    <t>Qt5Location.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-utility-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>vcruntime140.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-console-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-processenvironment-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5WinExtras.dll</t>
+  </si>
+  <si>
+    <t>Qt5Positioning.dll</t>
+  </si>
+  <si>
+    <t>Qt5Qml.dll</t>
+  </si>
+  <si>
+    <t>Qt5QuickControls2.dll</t>
+  </si>
+  <si>
+    <t>ucrtbase.dll</t>
+  </si>
+  <si>
+    <t>Qt5Bluetooth.dll</t>
+  </si>
+  <si>
+    <t>Qt5OpenGL.dll</t>
+  </si>
+  <si>
+    <t>Qt5WebEngineWidgets.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-file-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>libeay32.dll</t>
+  </si>
+  <si>
+    <t>Qt5QuickParticles.dll</t>
+  </si>
+  <si>
+    <t>Qt5Svg.dll</t>
+  </si>
+  <si>
+    <t>Qt5QuickTest.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-errorhandling-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-process-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Network.dll</t>
+  </si>
+  <si>
+    <t>concrt140.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-heap-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-processthreads-l1-1-1.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-processthreads-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-convert-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-private-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-file-l2-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-debug-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-stdio-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-localization-l1-2-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-datetime-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-math-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-file-l1-2-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5QuickWidgets.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-timezone-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Sql.dll</t>
+  </si>
+  <si>
+    <t>Qt5Sensors.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-rtlsupport-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-handle-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Nfc.dll</t>
+  </si>
+  <si>
+    <t>Qt5WebEngineCore.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-synch-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Gui.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-string-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>libEGL.dll</t>
+  </si>
+  <si>
+    <t>Qt5Widgets.dll</t>
+  </si>
+  <si>
+    <t>Qt5QuickTemplates2.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-interlocked-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5PrintSupport.dll</t>
+  </si>
+  <si>
+    <t>Qt5MultimediaWidgets.dll</t>
+  </si>
+  <si>
+    <t>Qt5WebEngine.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-memory-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Designer.dll</t>
+  </si>
+  <si>
+    <t>Qt5DBus.dll</t>
+  </si>
+  <si>
+    <t>Qt5Xml.dll</t>
+  </si>
+  <si>
+    <t>Qt5Core.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-util-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Quick.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-namedpipe-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5MultimediaQuick_p.dll</t>
+  </si>
+  <si>
+    <t>Qt5Help.dll</t>
+  </si>
+  <si>
+    <t>Qt5WebChannel.dll</t>
+  </si>
+  <si>
+    <t>ssleay32.dll</t>
+  </si>
+  <si>
+    <t>Qt5XmlPatterns.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-conio-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-runtime-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-string-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5SerialPort.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-multibyte-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-synch-l1-2-0.dll</t>
+  </si>
+  <si>
+    <t>Qt5Test.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-profile-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-locale-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-heap-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>libGLESv2.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-sysinfo-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-core-libraryloader-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>api-ms-win-crt-environment-l1-1-0.dll</t>
+  </si>
+  <si>
+    <t>msvcp140.dll</t>
+  </si>
+  <si>
+    <t>sqldiff</t>
+  </si>
+  <si>
+    <t>sqlite3</t>
+  </si>
+  <si>
+    <t>sqlite3_analyzer</t>
+  </si>
+  <si>
+    <t>MathJax.js</t>
+  </si>
+  <si>
+    <t>require.min.js</t>
+  </si>
+  <si>
+    <t>jquery.min.js</t>
   </si>
 </sst>
 </file>
@@ -434,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,15 +789,14 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("file:///C:/TEMP\controldebug.ini", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁.pdf", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -485,15 +808,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("file:///C:/TEMP\friend_list.txt", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/image.zip", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -505,15 +827,14 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("file:///C:/TEMP\SharedDisable.exe", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/settings.jar", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -525,15 +846,14 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("file:///C:/TEMP\stop.lnk", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/259a647f6587020a8af66d78b30cf460.torrent", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -545,15 +865,14 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f>HYPERLINK("C:/TEMP", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("file:///C:/TEMP\wushowhide.diagcab", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/Mortal.Engines.2018.1080p.KORSUB.HDRip.x264.AAC2.0-STUTTERSHIT.torrent", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -562,18 +881,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\data1.cab", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/The.Matrix.1999.RM.in.4K.Bluray.1080p.TrueHD.7.1.Atmos.x264-Grym.torrent", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -582,18 +900,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\data1.hdr", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/Form.zip", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -602,18 +919,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\data2.cab", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/.DS_Store", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -622,18 +938,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\ikernel.ex_", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/images.jpeg", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -642,18 +957,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\layout.bin", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/.localized", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -662,18 +976,17 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\Setup.exe", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/PSB 계획.pdf", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -682,18 +995,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\Setup.ini", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/PMC 더 벙커 Take Point. 2018.720p.HDRip.H264.AAC-NonDRM.mp4.torrent", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -702,18 +1014,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\setup.inx", "FileView")
-</f>
+        <f>HYPERLINK("file://Users/zetta/Downloads/c23d4316d226ce344b2adbc60b80b7fd.jpg", "FileView")</f>
         <v>0</v>
       </c>
     </row>
@@ -722,18 +1033,3608 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <f>HYPERLINK("C:/TEMP\TCO_20160823", "DirView")</f>
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
         <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles.z02", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <f>HYPERLINK("file://Users/zetta/Downloads/sqlite-tools-osx-x86-3260000.zip", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁.htm", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles.z03", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁.tex", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <f>HYPERLINK("file://Users/zetta/Downloads/새 파일 2019-01-29 12.33.36.pdf", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="E15">
-        <f>HYPERLINK("file:///C:/TEMP\TCO_20160823\SVRINFO.INI", "FileView")
-</f>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁.slides.html", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁.html", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles.zip", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁.md", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <f>HYPERLINK("file://Users/zetta/Downloads/dllFiles 2.zip", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <f>HYPERLINK("file://Users/zetta/Downloads/Sublime Text Build 3176.dmg", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <f>HYPERLINK("file://Users/zetta/Downloads/Aquaman.2018.1080p.KORSUB.HDRip.x264.AAC2.0-STUTTERSHIT.torrent", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <f>HYPERLINK("file://Users/zetta/Downloads/Alfred_3.7.1_946.dmg", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles.z01", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f>HYPERLINK("/Users/zetta/Downloads", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <f>HYPERLINK("file://Users/zetta/Downloads/zDownload", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-time-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5WebSockets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-filesystem-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Multimedia.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Location.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-utility-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/vcruntime140.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-console-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-processenvironment-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5WinExtras.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Positioning.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Qml.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5QuickControls2.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/ucrtbase.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Bluetooth.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5OpenGL.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5WebEngineWidgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-file-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/libeay32.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5QuickParticles.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Svg.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5QuickTest.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-errorhandling-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-process-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Network.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/concrt140.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-heap-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-processthreads-l1-1-1.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-processthreads-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-convert-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-private-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-file-l2-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-debug-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-stdio-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-localization-l1-2-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-datetime-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-math-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-file-l1-2-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5QuickWidgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-timezone-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Sql.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Sensors.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-rtlsupport-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-handle-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Nfc.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5WebEngineCore.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-synch-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Gui.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-string-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/libEGL.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Widgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5QuickTemplates2.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-interlocked-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5PrintSupport.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5MultimediaWidgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5WebEngine.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-memory-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Designer.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5DBus.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Xml.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Core.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-util-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Quick.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-namedpipe-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5MultimediaQuick_p.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Help.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5WebChannel.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/ssleay32.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5XmlPatterns.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-conio-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-runtime-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-string-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5SerialPort.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-multibyte-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-synch-l1-2-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/Qt5Test.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-profile-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-locale-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-heap-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/libGLESv2.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-sysinfo-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-core-libraryloader-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/api-ms-win-crt-environment-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <f>HYPERLINK("/Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114">
+        <f>HYPERLINK("file://Users/zetta/Downloads/.TheUnarchiverTemp0/_dllFiles/msvcp140.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-time-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5WebSockets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-filesystem-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Multimedia.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Location.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-utility-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/vcruntime140.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-console-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-processenvironment-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5WinExtras.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Positioning.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>50</v>
+      </c>
+      <c r="E126">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Qml.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5QuickControls2.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>52</v>
+      </c>
+      <c r="E128">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/ucrtbase.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Bluetooth.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5OpenGL.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5WebEngineWidgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>56</v>
+      </c>
+      <c r="E132">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-file-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>57</v>
+      </c>
+      <c r="E133">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/libeay32.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5QuickParticles.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Svg.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>60</v>
+      </c>
+      <c r="E136">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5QuickTest.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>61</v>
+      </c>
+      <c r="E137">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-errorhandling-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-process-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Network.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/concrt140.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>65</v>
+      </c>
+      <c r="E141">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-heap-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-processthreads-l1-1-1.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>67</v>
+      </c>
+      <c r="E143">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-processthreads-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-convert-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-private-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-file-l2-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-debug-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-stdio-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>73</v>
+      </c>
+      <c r="E149">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-localization-l1-2-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-datetime-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>75</v>
+      </c>
+      <c r="E151">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-math-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>76</v>
+      </c>
+      <c r="E152">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-file-l1-2-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5QuickWidgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>78</v>
+      </c>
+      <c r="E154">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-timezone-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Sql.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Sensors.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-rtlsupport-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>82</v>
+      </c>
+      <c r="E158">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-handle-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>83</v>
+      </c>
+      <c r="E159">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Nfc.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>84</v>
+      </c>
+      <c r="E160">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5WebEngineCore.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>85</v>
+      </c>
+      <c r="E161">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-synch-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>86</v>
+      </c>
+      <c r="E162">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Gui.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>87</v>
+      </c>
+      <c r="E163">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-string-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>88</v>
+      </c>
+      <c r="E164">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/libEGL.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>89</v>
+      </c>
+      <c r="E165">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Widgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>90</v>
+      </c>
+      <c r="E166">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5QuickTemplates2.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>91</v>
+      </c>
+      <c r="E167">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-interlocked-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>92</v>
+      </c>
+      <c r="E168">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5PrintSupport.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>93</v>
+      </c>
+      <c r="E169">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5MultimediaWidgets.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5WebEngine.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>95</v>
+      </c>
+      <c r="E171">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-memory-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Designer.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5DBus.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>98</v>
+      </c>
+      <c r="E174">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Xml.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>99</v>
+      </c>
+      <c r="E175">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Core.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>100</v>
+      </c>
+      <c r="E176">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-util-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>101</v>
+      </c>
+      <c r="E177">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Quick.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>102</v>
+      </c>
+      <c r="E178">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-namedpipe-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>103</v>
+      </c>
+      <c r="E179">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5MultimediaQuick_p.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>104</v>
+      </c>
+      <c r="E180">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Help.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>105</v>
+      </c>
+      <c r="E181">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5WebChannel.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>106</v>
+      </c>
+      <c r="E182">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/ssleay32.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>107</v>
+      </c>
+      <c r="E183">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5XmlPatterns.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>108</v>
+      </c>
+      <c r="E184">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-conio-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>109</v>
+      </c>
+      <c r="E185">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-runtime-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>110</v>
+      </c>
+      <c r="E186">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-string-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>111</v>
+      </c>
+      <c r="E187">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5SerialPort.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>112</v>
+      </c>
+      <c r="E188">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-multibyte-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>113</v>
+      </c>
+      <c r="E189">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-synch-l1-2-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>114</v>
+      </c>
+      <c r="E190">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/Qt5Test.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>115</v>
+      </c>
+      <c r="E191">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-profile-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>116</v>
+      </c>
+      <c r="E192">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-locale-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>117</v>
+      </c>
+      <c r="E193">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-heap-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>118</v>
+      </c>
+      <c r="E194">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/libGLESv2.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>119</v>
+      </c>
+      <c r="E195">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-sysinfo-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>120</v>
+      </c>
+      <c r="E196">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-core-libraryloader-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>121</v>
+      </c>
+      <c r="E197">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/api-ms-win-crt-environment-l1-1-0.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <f>HYPERLINK("/Users/zetta/Downloads/_dllFiles", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E198">
+        <f>HYPERLINK("file://Users/zetta/Downloads/_dllFiles/msvcp140.dll", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <f>HYPERLINK("/Users/zetta/Downloads/sqlite-tools-osx-x86-3260000", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>123</v>
+      </c>
+      <c r="E199">
+        <f>HYPERLINK("file://Users/zetta/Downloads/sqlite-tools-osx-x86-3260000/sqldiff", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <f>HYPERLINK("/Users/zetta/Downloads/sqlite-tools-osx-x86-3260000", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>124</v>
+      </c>
+      <c r="E200">
+        <f>HYPERLINK("file://Users/zetta/Downloads/sqlite-tools-osx-x86-3260000/sqlite3", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <f>HYPERLINK("/Users/zetta/Downloads/sqlite-tools-osx-x86-3260000", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
+        <v>125</v>
+      </c>
+      <c r="E201">
+        <f>HYPERLINK("file://Users/zetta/Downloads/sqlite-tools-osx-x86-3260000/sqlite3_analyzer", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <f>HYPERLINK("/Users/zetta/Downloads/팬더스_명령어_꿀팁_files", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>126</v>
+      </c>
+      <c r="E202">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁_files/MathJax.js", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <f>HYPERLINK("/Users/zetta/Downloads/팬더스_명령어_꿀팁_files", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>127</v>
+      </c>
+      <c r="E203">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁_files/require.min.js", "FileView")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <f>HYPERLINK("/Users/zetta/Downloads/팬더스_명령어_꿀팁_files", "DirView")</f>
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>128</v>
+      </c>
+      <c r="E204">
+        <f>HYPERLINK("file://Users/zetta/Downloads/팬더스_명령어_꿀팁_files/jquery.min.js", "FileView")</f>
         <v>0</v>
       </c>
     </row>
